--- a/Upload Data/Vocabulary/kế hoạch kinh doanh/ke-hoach-kinh-doanh.xlsx
+++ b/Upload Data/Vocabulary/kế hoạch kinh doanh/ke-hoach-kinh-doanh.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\Upload Data\Vocabulary\kế hoạch kinh doanh\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF78C5F-B1B2-46E5-9CEC-7BE62B250CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,14 +394,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -433,7 +442,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -505,7 +514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,25 +687,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="61.42578125" customWidth="1"/>
-    <col min="7" max="7" width="99.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="61.453125" customWidth="1"/>
+    <col min="7" max="7" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -717,7 +726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -740,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -763,7 +772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -786,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -809,7 +818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -832,7 +841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -855,7 +864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -878,7 +887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -901,7 +910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -924,7 +933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -953,24 +962,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
